--- a/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
+++ b/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,13 +1965,711 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>37</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>24.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
+++ b/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.17</v>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2663,13 +2706,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>37</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>24.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
+++ b/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.17</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2926,13 +2991,1729 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>37</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>24.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
+++ b/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>8.59</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>24.47</v>
       </c>
     </row>
@@ -549,6 +566,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2312,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2558,7 +2973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3260,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
+++ b/数据整理/stocks/A股/创业板/300432-富临精工.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8.59</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>24.47</v>
       </c>
     </row>
@@ -566,6 +583,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -963,7 +1338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2727,7 +3102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2973,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3675,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
